--- a/xlsx/梅赛德斯-奔驰S级_intext.xlsx
+++ b/xlsx/梅赛德斯-奔驰S级_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>梅赛德斯-奔驰S级</t>
   </si>
@@ -29,19 +29,19 @@
     <t>en-Mercedes-Benz S-Class</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_梅赛德斯-奔驰S级</t>
+    <t>政策_政策_混合动力车辆_梅赛德斯-奔驰S级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E5%B9%B3%E6%B2%BB</t>
   </si>
   <si>
-    <t>梅賽德斯-平治</t>
+    <t>梅赛德斯-平治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%BE%B7%E5%B0%94%E8%8A%AC%E6%A0%B9</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD</t>
   </si>
   <si>
-    <t>德黑蘭</t>
+    <t>德黑兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%B0%B7</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E8%BB%8A</t>
   </si>
   <si>
-    <t>大眾車</t>
+    <t>大众车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>邁巴赫</t>
+    <t>迈巴赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mercedes-Benz_S-Class</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-AMG</t>
   </si>
   <si>
-    <t>梅賽德斯-AMG</t>
+    <t>梅赛德斯-AMG</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>前置後驅</t>
+    <t>前置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎跑車</t>
+    <t>轿跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -263,9 +263,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E6%B2%B9%E5%99%A8</t>
   </si>
   <si>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%ABW126</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士W126</t>
+    <t>梅赛德斯-宾士W126</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士</t>
+    <t>梅赛德斯-宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E9%80%9F%E5%99%A8</t>
@@ -305,19 +302,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>迈巴赫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E5%82%B3%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪傳動</t>
+    <t>四轮传动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%AF%94%E5%A3%AB</t>
@@ -335,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%99%E6%B0%A3%E5%A4%A7%E7%87%88</t>
   </si>
   <si>
-    <t>氙氣大燈</t>
+    <t>氙气大灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%A0%A1%E6%9C%BA%E5%9C%BA</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E9%81%93%E5%81%8F%E9%9B%A2%E8%AD%A6%E7%A4%BA</t>
   </si>
   <si>
-    <t>車道偏離警示</t>
+    <t>车道偏离警示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0C%E7%BA%A7</t>
@@ -371,9 +365,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BF%E8%BD%A6</t>
   </si>
   <si>
-    <t>轿车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0E%E7%BA%A7</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BF%E8%B7%91%E8%BD%A6</t>
   </si>
   <si>
-    <t>轿跑车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0CLK%E7%BA%A7</t>
   </si>
   <si>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%BA%A7%E6%95%9E%E7%AF%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙座敞篷車</t>
+    <t>双座敞篷车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0SLS_AMG</t>
@@ -443,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%8A%9F%E8%83%BD%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>多功能休旅車</t>
+    <t>多功能休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0GLK%E7%B3%BB%E5%88%97</t>
@@ -2265,7 +2253,7 @@
         <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -2291,10 +2279,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s">
         <v>83</v>
-      </c>
-      <c r="F51" t="s">
-        <v>84</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2320,10 +2308,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s">
         <v>85</v>
-      </c>
-      <c r="F52" t="s">
-        <v>86</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2349,10 +2337,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s">
         <v>87</v>
-      </c>
-      <c r="F53" t="s">
-        <v>88</v>
       </c>
       <c r="G53" t="n">
         <v>21</v>
@@ -2378,10 +2366,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s">
         <v>89</v>
-      </c>
-      <c r="F54" t="s">
-        <v>90</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2407,10 +2395,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
         <v>91</v>
-      </c>
-      <c r="F55" t="s">
-        <v>92</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2436,10 +2424,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
         <v>93</v>
-      </c>
-      <c r="F56" t="s">
-        <v>94</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2465,10 +2453,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" t="s">
         <v>95</v>
-      </c>
-      <c r="F57" t="s">
-        <v>96</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2494,10 +2482,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2523,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2552,10 +2540,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2581,10 +2569,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2610,10 +2598,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2639,10 +2627,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2668,10 +2656,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2726,10 +2714,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2871,10 +2859,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -2958,10 +2946,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G74" t="n">
         <v>100</v>
@@ -2987,10 +2975,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
         <v>8</v>
@@ -3016,10 +3004,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3045,10 +3033,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3074,10 +3062,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3103,10 +3091,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3132,10 +3120,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3161,10 +3149,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3190,10 +3178,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F82" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G82" t="n">
         <v>120</v>
@@ -3219,10 +3207,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3248,10 +3236,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3277,10 +3265,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3306,10 +3294,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3335,10 +3323,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" t="s">
         <v>91</v>
-      </c>
-      <c r="F87" t="s">
-        <v>92</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3364,10 +3352,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3393,10 +3381,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -3422,10 +3410,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3451,10 +3439,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3480,10 +3468,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3509,10 +3497,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3538,10 +3526,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3567,10 +3555,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3625,10 +3613,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3654,10 +3642,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3683,10 +3671,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3712,10 +3700,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" t="s">
         <v>91</v>
-      </c>
-      <c r="F100" t="s">
-        <v>92</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3741,10 +3729,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3770,10 +3758,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -3799,10 +3787,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F103" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3828,10 +3816,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3857,10 +3845,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3886,10 +3874,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3915,10 +3903,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3944,10 +3932,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -3973,10 +3961,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4002,10 +3990,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4031,10 +4019,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4060,10 +4048,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4089,10 +4077,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4118,10 +4106,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4147,10 +4135,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F115" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G115" t="n">
         <v>27</v>
@@ -4176,10 +4164,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4205,10 +4193,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4234,10 +4222,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4263,10 +4251,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4292,10 +4280,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4321,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4350,10 +4338,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F122" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
